--- a/biology/Médecine/Maurice_Goulon/Maurice_Goulon.xlsx
+++ b/biology/Médecine/Maurice_Goulon/Maurice_Goulon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Marie Paul Goulon, né le 3 février 1919 à Turin (Italie) et mort le 14 avril 2008 à Paris est un professeur de médecine français, à la fois neurologue et pionnier de la médecine d'urgence et de la ventilation mécanique. Il était membre de l'académie de médecine.
 </t>
@@ -513,14 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-D'origine mosellane,  il est le fils d'un directeur d'usine de la société Michelin. Après une scolarité primaire à Turin, il suit ses études au  Collège des jésuites de Saint-Clément de Metz avant d'entamer des études de médecine à la  Faculté de médecine de Nancy.
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine mosellane,  il est le fils d'un directeur d'usine de la société Michelin. Après une scolarité primaire à Turin, il suit ses études au  Collège des jésuites de Saint-Clément de Metz avant d'entamer des études de médecine à la  Faculté de médecine de Nancy.
 Mobilisé en 1939, il est médecin auxiliaire et s'engage dans les combats des ponts de la Loire. Externe des Hôpitaux de Paris, il y rencontre Robert Debré et fait la connaissance de sa future épouse Jeanne Bion. Il soutient sa thèse intitulée Granulations péritonéales pseudo-néoplasiques et pseudotuberculeuses en gériatrie en janvier 1945.
-Carrière
-C'est sous l'impulsion du professeur Pierre Mollaret, à la fois neurologue et spécialiste des maladies infectieuses et convaincu par les travaux de Maurice Cara sur la ventilation mécanique artificielle, qu'il développe une nouvelle discipline : la réanimation respiratoire. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maurice_Goulon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maurice_Goulon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est sous l'impulsion du professeur Pierre Mollaret, à la fois neurologue et spécialiste des maladies infectieuses et convaincu par les travaux de Maurice Cara sur la ventilation mécanique artificielle, qu'il développe une nouvelle discipline : la réanimation respiratoire. 
 L'épidémie de poliomyélite survenue en 1953 en Suède ont convaincu les fabricants d'appareils d'anesthésie de modifier des ventilateurs mécaniques. Maurice Goulon entre à l'hôpital Raymond-Poincaré de Garches où il va former la génération des nouveaux réanimateurs.
-En 1959, il publie avec le Pr Mollaret un article fondamental sur les signes avérés du coma dépassé chez une série de patients sans activité cérébrale et incapables de respirer seuls, ce qui a permis de décrire les signes de la mort cérébrale ce qui a initié l'essor des greffes d'organes[1].
-Il meurt à Paris au printemps de 2008[2].
+En 1959, il publie avec le Pr Mollaret un article fondamental sur les signes avérés du coma dépassé chez une série de patients sans activité cérébrale et incapables de respirer seuls, ce qui a permis de décrire les signes de la mort cérébrale ce qui a initié l'essor des greffes d'organes.
+Il meurt à Paris au printemps de 2008.
 </t>
         </is>
       </c>
